--- a/data/trans_bre/P42_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>-47,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>-19,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,32 +694,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 12,84</t>
+          <t>-7,57; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 15,76</t>
+          <t>-4,34; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 0,0</t>
+          <t>-3,9; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 0,0</t>
+          <t>-6,71; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,38; 93,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,83; 48,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 21,45</t>
+          <t>-1,77; 13,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 15,08</t>
+          <t>-7,5; 8,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 6,45</t>
+          <t>-3,38; 3,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 7,35</t>
+          <t>-1,73; 4,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 173,95</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 300,75</t>
+          <t>-12,92; 161,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,19; 287,91</t>
+          <t>-60,6; 265,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 724,2</t>
+          <t>-63,74; 250,48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-59,9; 443,29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-25,26%</t>
+          <t>-25,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>102,56%</t>
+          <t>-24,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>270,01%</t>
+          <t>59,93%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>199,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 7,13</t>
+          <t>-10,47; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 3,82</t>
+          <t>-9,77; 2,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 5,65</t>
+          <t>-1,59; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,06</t>
+          <t>0,44; 4,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 59,71</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,77; 71,63</t>
+          <t>-58,81; 26,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,06; 519,41</t>
+          <t>-74,84; 56,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 1344,24</t>
+          <t>-57,23; 530,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 1070,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>-27,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>-10,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 9,22</t>
+          <t>-11,88; 1,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 7,33</t>
+          <t>-4,35; 3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,32</t>
+          <t>-2,52; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,48</t>
+          <t>-2,2; 1,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 70,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 130,76</t>
+          <t>-60,04; 14,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 270,07</t>
+          <t>-54,82; 78,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,22; 254,95</t>
+          <t>-67,97; 214,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-67,95; 198,81</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>139,7%</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>148,29%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>200,98%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>207,61%</t>
+          <t>140,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>139,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,40 +1174,50 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 36,31</t>
+          <t>-2,78; 7,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 19,96</t>
+          <t>-1,56; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,24</t>
+          <t>-0,35; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 9,5</t>
+          <t>-0,56; 3,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,33; 400,78</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,71; —</t>
+          <t>-38,87; 205,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,59; 842,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1120,12 +1236,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-33,03</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1140,20 +1256,30 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1168,12 +1294,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 0,0</t>
+          <t>-2,04; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1202,6 +1328,16 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>90,09%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,69</t>
+          <t>-3,75; 0,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,3</t>
+          <t>-2,68; 1,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,22</t>
+          <t>-0,77; 1,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,81</t>
+          <t>-0,32; 1,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 57,97</t>
+          <t>-0,15; 0,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 81,12</t>
+          <t>-34,08; 13,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 162,46</t>
+          <t>-46,49; 42,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 216,55</t>
+          <t>-35,47; 105,83</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 169,77</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
